--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\GitHub\Dash-Olimpiadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00301DE-EE4B-464E-83D1-C49A289B3B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA3F292-EC1C-4986-B07D-3F056AFF042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$K$70</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,9 +63,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Phelps, Michael Michael Phelps</t>
-  </si>
-  <si>
     <t> Estados Unidos</t>
   </si>
   <si>
@@ -78,9 +78,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Latynina, Larissa Larissa Latynina</t>
-  </si>
-  <si>
     <t> União Soviética</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Nurmi, Paavo Paavo Nurmi</t>
-  </si>
-  <si>
     <t> Finlândia</t>
   </si>
   <si>
@@ -105,21 +99,12 @@
     <t>1920-1928</t>
   </si>
   <si>
-    <t>Spitz, Mark Mark Spitz</t>
-  </si>
-  <si>
     <t>1968-1972</t>
   </si>
   <si>
-    <t>Lewis, Carl Carl Lewis</t>
-  </si>
-  <si>
     <t>1984-1996</t>
   </si>
   <si>
-    <t>Bjørndalen, Ole Einar Ole Einar Bjørndalen</t>
-  </si>
-  <si>
     <t> Noruega</t>
   </si>
   <si>
@@ -132,18 +117,12 @@
     <t>Inverno</t>
   </si>
   <si>
-    <t>Dæhlie, Bjørn Bjørn Dæhlie</t>
-  </si>
-  <si>
     <t>Esqui cross-country</t>
   </si>
   <si>
     <t>1992-1998</t>
   </si>
   <si>
-    <t>Fischer, Birgit Birgit Fischer</t>
-  </si>
-  <si>
     <t> Alemanha</t>
   </si>
   <si>
@@ -153,60 +132,33 @@
     <t>1980-2004</t>
   </si>
   <si>
-    <t>Kato, Sawao Sawao Kato</t>
-  </si>
-  <si>
     <t> Japão</t>
   </si>
   <si>
     <t>1968-1976</t>
   </si>
   <si>
-    <t>Thompson, Jenny Jenny Thompson</t>
-  </si>
-  <si>
     <t>1992-2004</t>
   </si>
   <si>
-    <t>Biondi, Matt Matt Biondi</t>
-  </si>
-  <si>
     <t>1984-1992</t>
   </si>
   <si>
-    <t>Ewry, Ray Ray Ewry</t>
-  </si>
-  <si>
     <t>1900-1908</t>
   </si>
   <si>
-    <t>Andrianov, Nikolay Nikolay Andrianov</t>
-  </si>
-  <si>
     <t>1972-1980</t>
   </si>
   <si>
-    <t>Shakhlin, Boris Boris Shakhlin</t>
-  </si>
-  <si>
-    <t>Čáslavská, Věra Věra Čáslavská</t>
-  </si>
-  <si>
     <t> Tchecoslováquia</t>
   </si>
   <si>
     <t>1960-1968</t>
   </si>
   <si>
-    <t>Chukarin, Viktor Viktor Chukarin</t>
-  </si>
-  <si>
     <t>1952-1956</t>
   </si>
   <si>
-    <t>Gerevich, Aladár Aladár Gerevich</t>
-  </si>
-  <si>
     <t> Hungria</t>
   </si>
   <si>
@@ -216,33 +168,21 @@
     <t>1932-1960</t>
   </si>
   <si>
-    <t>Mangiarotti, Edoardo Edoardo Mangiarotti</t>
-  </si>
-  <si>
     <t> Itália</t>
   </si>
   <si>
     <t>1936-1960</t>
   </si>
   <si>
-    <t>Bjørgen, Marit Marit Bjørgen</t>
-  </si>
-  <si>
     <t>2002-2014</t>
   </si>
   <si>
-    <t>Egorova, Lyubov Lyubov Egorova</t>
-  </si>
-  <si>
     <t> Rússia</t>
   </si>
   <si>
     <t>1992-1994</t>
   </si>
   <si>
-    <t>Van Innis, Hubert Hubert Van Innis</t>
-  </si>
-  <si>
     <t> Bélgica</t>
   </si>
   <si>
@@ -252,30 +192,18 @@
     <t>1900-1920</t>
   </si>
   <si>
-    <t>Nakayama, Akinori Akinori Nakayama</t>
-  </si>
-  <si>
     <t>Ginástica</t>
   </si>
   <si>
-    <t>Vezzali, Valentina Valentina Vezzali</t>
-  </si>
-  <si>
     <t>1996–2012</t>
   </si>
   <si>
-    <t>Fredriksson, Gert Gert Fredriksson</t>
-  </si>
-  <si>
     <t> Suécia</t>
   </si>
   <si>
     <t>1948-1960</t>
   </si>
   <si>
-    <t>Hoy, Chris Chris Hoy</t>
-  </si>
-  <si>
     <t> Reino Unido</t>
   </si>
   <si>
@@ -285,18 +213,12 @@
     <t>2000-2012</t>
   </si>
   <si>
-    <t>Scherbo, Vitaly Vitaly Scherbo</t>
-  </si>
-  <si>
     <t> Bielorrússia</t>
   </si>
   <si>
     <t>1992-1996</t>
   </si>
   <si>
-    <t>Ahn, Viktor Viktor Ahn</t>
-  </si>
-  <si>
     <t> Coreia do Sul</t>
   </si>
   <si>
@@ -306,213 +228,96 @@
     <t>2006-2014</t>
   </si>
   <si>
-    <t>Klimke, Reiner Reiner Klimke</t>
-  </si>
-  <si>
     <t>Equitação</t>
   </si>
   <si>
     <t>1964-1988</t>
   </si>
   <si>
-    <t>Kovács, Pál Pál Kovács</t>
-  </si>
-  <si>
-    <t>Bolt, Usain Usain Bolt</t>
-  </si>
-  <si>
     <t> Jamaica</t>
   </si>
   <si>
     <t>2008-2016</t>
   </si>
   <si>
-    <t>Kárpáti, Rudolf Rudolf Kárpáti</t>
-  </si>
-  <si>
-    <t>Nadi, Nedo Nedo Nadi</t>
-  </si>
-  <si>
     <t>1912-1920</t>
   </si>
   <si>
-    <t>Otto, Kristin Kristin Otto</t>
-  </si>
-  <si>
     <t> Alemanha Oriental</t>
   </si>
   <si>
-    <t>Skoblikova, Lidia Lidia Skoblikova</t>
-  </si>
-  <si>
     <t>Patinagem de velocidade no gelo</t>
   </si>
   <si>
     <t>1960-1964</t>
   </si>
   <si>
-    <t>Van Dyken, Amy Amy Van Dyken</t>
-  </si>
-  <si>
     <t>1996-2000</t>
   </si>
   <si>
-    <t>Ono, Takashi Takashi Ono</t>
-  </si>
-  <si>
     <t>1952-1964</t>
   </si>
   <si>
-    <t>Osburn, Carl Carl Osburn</t>
-  </si>
-  <si>
     <t>Tiro</t>
   </si>
   <si>
     <t>1912-1924</t>
   </si>
   <si>
-    <t>Lochte, Ryan Ryan Lochte</t>
-  </si>
-  <si>
     <t>2004-2012</t>
   </si>
   <si>
-    <t>Hall Jr., Gary Gary Hall Jr.</t>
-  </si>
-  <si>
     <t>1996-2004</t>
   </si>
   <si>
-    <t>Keleti, Ágnes Ágnes Keleti</t>
-  </si>
-  <si>
-    <t>Comăneci, Nadia Nadia Comăneci</t>
-  </si>
-  <si>
     <t>Roménia</t>
   </si>
   <si>
     <t>1976-1980</t>
   </si>
   <si>
-    <t>Thorpe, Ian Ian Thorpe</t>
-  </si>
-  <si>
     <t> Austrália</t>
   </si>
   <si>
     <t>2000-2004</t>
   </si>
   <si>
-    <t>Ritola, Ville Ville Ritola</t>
-  </si>
-  <si>
     <t>1924-1928</t>
   </si>
   <si>
-    <t>Werth, Isabell Isabell Werth</t>
-  </si>
-  <si>
     <t>1992-2008</t>
   </si>
   <si>
-    <t>Astakhova, Polina Polina Astakhova</t>
-  </si>
-  <si>
-    <t>Pechstein, Claudia Claudia Pechstein</t>
-  </si>
-  <si>
     <t>1992-2006</t>
   </si>
   <si>
-    <t>Lipă, Elisabeta Elisabeta Lipă</t>
-  </si>
-  <si>
     <t>Remo</t>
   </si>
   <si>
     <t>1984-2000</t>
   </si>
   <si>
-    <t>Endo, Yukio Yukio Endo</t>
-  </si>
-  <si>
-    <t>Peirsol, Aaron Aaron Peirsol</t>
-  </si>
-  <si>
     <t>2000-2008</t>
   </si>
   <si>
-    <t>Tsukahara, Mitsuo Mitsuo Tsukahara</t>
-  </si>
-  <si>
-    <t>Egerszegi, Krisztina Krisztina Egerszegi</t>
-  </si>
-  <si>
     <t>1988-1996</t>
   </si>
   <si>
-    <t>Jager, Tom Tom Jager</t>
-  </si>
-  <si>
-    <t>Lazutina, Larisa Larisa Lazutina</t>
-  </si>
-  <si>
-    <t>Lee, Willis Willis Lee</t>
-  </si>
-  <si>
-    <t>Thunberg, Clas Clas Thunberg</t>
-  </si>
-  <si>
-    <t>Winkler, Hans Günter Hans Günter Winkler</t>
-  </si>
-  <si>
     <t>1956-1976</t>
   </si>
   <si>
-    <t>Alsgaard, Thomas Thomas Alsgaard</t>
-  </si>
-  <si>
     <t>1994-2002</t>
   </si>
   <si>
-    <t>Heida, Anton Anton Heida</t>
-  </si>
-  <si>
-    <t>Kim, Nellie Nellie Kim</t>
-  </si>
-  <si>
-    <t>Lilloe-Olsen, Ole Ole Lilloe-Olsen</t>
-  </si>
-  <si>
     <t>1920-1924</t>
   </si>
   <si>
-    <t>Schollander, Don Don Schollander</t>
-  </si>
-  <si>
     <t>1964-1968</t>
   </si>
   <si>
-    <t>Blair, Bonnie Bonnie Blair</t>
-  </si>
-  <si>
     <t>1988-1994</t>
   </si>
   <si>
-    <t>Damian, Georgeta Georgeta Damian</t>
-  </si>
-  <si>
-    <t>Lane, Alfred Alfred Lane</t>
-  </si>
-  <si>
-    <t>Redgrave, Steve Steve Redgrave</t>
-  </si>
-  <si>
-    <t>Weissmuller, Johnny Johnny Weissmuller</t>
-  </si>
-  <si>
     <t>Natação, Water polo</t>
   </si>
   <si>
@@ -525,10 +330,208 @@
     <t>2008-2012</t>
   </si>
   <si>
-    <t>Fisher, Morris Morris Fisher</t>
-  </si>
-  <si>
-    <t>Heiden, Eric Eric Heiden</t>
+    <t xml:space="preserve"> Larissa Latynina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paavo Nurmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Spitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carl Lewis</t>
+  </si>
+  <si>
+    <t>Ole Einar Bjørndalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bjørn Dæhlie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Birgit Fischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sawao Kato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jenny Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Biondi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ray Ewry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nikolay Andrianov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boris Shakhlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Věra Čáslavská</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viktor Chukarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aladár Gerevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edoardo Mangiarotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marit Bjørgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lyubov Egorova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hubert Van Innis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Akinori Nakayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valentina Vezzali</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gert Fredriksson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vitaly Scherbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viktor Ahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reiner Klimke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pál Kovács</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usain Bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rudolf Kárpáti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nedo Nadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristin Otto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lidia Skoblikova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amy Van Dyken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Takashi Ono</t>
+  </si>
+  <si>
+    <t>Carl Osburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Lochte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ágnes Keleti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nadia Comăneci</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ian Thorpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ville Ritola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isabell Werth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Polina Astakhova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Claudia Pechstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elisabeta Lipă</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yukio Endo</t>
+  </si>
+  <si>
+    <t>Aaron Peirsol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitsuo Tsukahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krisztina Egerszegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom Jager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Larisa Lazutina</t>
+  </si>
+  <si>
+    <t> Michael Phelps</t>
+  </si>
+  <si>
+    <t> Willis Lee</t>
+  </si>
+  <si>
+    <t>Clas Thunberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Günter Winkler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thomas Alsgaard</t>
+  </si>
+  <si>
+    <t>Anton Heida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nellie Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ole Lilloe-Olsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don Schollander</t>
+  </si>
+  <si>
+    <t>Bonnie Blair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgeta Damian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alfred Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steve Redgrave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnny Weissmuller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morris Fisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eric Heiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gary Hall Jr.</t>
   </si>
 </sst>
 </file>
@@ -969,11 +972,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1010,27 +1016,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5">
         <v>23</v>
@@ -1045,27 +1051,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H3" s="5">
         <v>9</v>
@@ -1080,27 +1086,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5">
         <v>9</v>
@@ -1115,27 +1121,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5">
         <v>9</v>
@@ -1150,27 +1156,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5">
         <v>9</v>
@@ -1185,27 +1191,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5">
         <v>8</v>
@@ -1220,27 +1226,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5">
         <v>8</v>
@@ -1255,27 +1261,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5">
         <v>8</v>
@@ -1290,27 +1296,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5">
         <v>8</v>
@@ -1325,27 +1331,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5">
         <v>8</v>
@@ -1360,27 +1366,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5">
         <v>8</v>
@@ -1395,27 +1401,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="5">
         <v>8</v>
@@ -1430,27 +1436,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5">
         <v>7</v>
@@ -1465,27 +1471,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="5">
         <v>7</v>
@@ -1500,27 +1506,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H16" s="5">
         <v>7</v>
@@ -1535,27 +1541,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="5">
         <v>7</v>
@@ -1570,27 +1576,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="5">
         <v>7</v>
@@ -1605,27 +1611,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5">
         <v>6</v>
@@ -1640,27 +1646,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H20" s="5">
         <v>6</v>
@@ -1675,27 +1681,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" s="5">
         <v>6</v>
@@ -1710,27 +1716,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="5">
         <v>6</v>
@@ -1745,27 +1751,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="5">
         <v>6</v>
@@ -1780,27 +1786,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H24" s="5">
         <v>6</v>
@@ -1815,27 +1821,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="5">
         <v>6</v>
@@ -1850,27 +1856,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5">
         <v>6</v>
@@ -1885,27 +1891,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="5">
         <v>6</v>
@@ -1925,22 +1931,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="8">
         <v>6</v>
@@ -1955,25 +1961,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="5">
         <v>6</v>
@@ -1988,27 +1994,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="5">
         <v>6</v>
@@ -2023,27 +2029,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="5">
         <v>8</v>
@@ -2058,27 +2064,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="5">
         <v>6</v>
@@ -2093,27 +2099,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="5">
         <v>6</v>
@@ -2128,27 +2134,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5">
         <v>1988</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H34" s="5">
         <v>6</v>
@@ -2168,22 +2174,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" s="5">
         <v>6</v>
@@ -2198,27 +2204,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36" s="5">
         <v>6</v>
@@ -2233,27 +2239,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="5">
         <v>5</v>
@@ -2268,27 +2274,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="5">
         <v>5</v>
@@ -2303,27 +2309,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="5">
         <v>5</v>
@@ -2338,27 +2344,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="5">
         <v>5</v>
@@ -2373,27 +2379,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H41" s="5">
         <v>5</v>
@@ -2408,27 +2414,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H42" s="5">
         <v>5</v>
@@ -2443,27 +2449,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="5">
         <v>5</v>
@@ -2478,27 +2484,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" s="5">
         <v>5</v>
@@ -2513,27 +2519,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H45" s="5">
         <v>5</v>
@@ -2548,27 +2554,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H46" s="5">
         <v>5</v>
@@ -2583,27 +2589,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H47" s="5">
         <v>5</v>
@@ -2618,27 +2624,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" s="5">
         <v>5</v>
@@ -2653,27 +2659,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="5">
         <v>5</v>
@@ -2688,27 +2694,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="5">
         <v>5</v>
@@ -2723,27 +2729,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="5">
         <v>5</v>
@@ -2758,27 +2764,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H52" s="5">
         <v>5</v>
@@ -2793,27 +2799,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" s="5">
         <v>5</v>
@@ -2828,27 +2834,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H54" s="5">
         <v>5</v>
@@ -2863,27 +2869,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>51</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E55" s="5">
         <v>1920</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="5">
         <v>5</v>
@@ -2903,22 +2909,22 @@
         <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" s="5">
         <v>5</v>
@@ -2933,27 +2939,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="5">
         <v>5</v>
@@ -2968,27 +2974,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>51</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" s="5">
         <v>5</v>
@@ -3003,27 +3009,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E59" s="5">
         <v>1904</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="5">
         <v>5</v>
@@ -3038,27 +3044,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H60" s="5">
         <v>5</v>
@@ -3073,27 +3079,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="5">
         <v>5</v>
@@ -3108,27 +3114,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62" s="5">
         <v>5</v>
@@ -3148,22 +3154,22 @@
         <v>57</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H63" s="5">
         <v>5</v>
@@ -3178,27 +3184,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H64" s="5">
         <v>5</v>
@@ -3213,27 +3219,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>62</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65" s="5">
         <v>5</v>
@@ -3248,27 +3254,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66" s="5">
         <v>5</v>
@@ -3283,27 +3289,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" s="5">
         <v>5</v>
@@ -3323,22 +3329,22 @@
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H68" s="5">
         <v>5</v>
@@ -3353,27 +3359,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" s="5">
         <v>5</v>
@@ -3393,22 +3399,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E70" s="5">
         <v>1980</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" s="5">
         <v>5</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\GitHub\Dash-Olimpiadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA3F292-EC1C-4986-B07D-3F056AFF042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1E9EB-9C22-422B-96B6-8417DCC299AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2130" windowWidth="20520" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,14 +558,6 @@
       <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -656,11 +648,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,21 +668,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -972,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,10 +1005,10 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1058,7 +1043,7 @@
       <c r="B3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1086,14 +1071,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1121,14 +1106,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1156,14 +1141,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1198,7 +1183,7 @@
       <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1233,7 +1218,7 @@
       <c r="B8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1261,14 +1246,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1303,7 +1288,7 @@
       <c r="B10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1331,14 +1316,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1366,14 +1351,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1401,14 +1386,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1443,7 +1428,7 @@
       <c r="B14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1478,7 +1463,7 @@
       <c r="B15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1513,7 +1498,7 @@
       <c r="B16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1548,7 +1533,7 @@
       <c r="B17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1583,7 +1568,7 @@
       <c r="B18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1618,7 +1603,7 @@
       <c r="B19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1653,7 +1638,7 @@
       <c r="B20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1688,7 +1673,7 @@
       <c r="B21" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1723,7 +1708,7 @@
       <c r="B22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1758,7 +1743,7 @@
       <c r="B23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1793,7 +1778,7 @@
       <c r="B24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1828,7 +1813,7 @@
       <c r="B25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1856,14 +1841,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1898,7 +1883,7 @@
       <c r="B27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1930,43 +1915,43 @@
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6">
         <v>6</v>
       </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
         <v>2</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
       <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2001,7 +1986,7 @@
       <c r="B30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2036,7 +2021,7 @@
       <c r="B31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2071,7 +2056,7 @@
       <c r="B32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2106,7 +2091,7 @@
       <c r="B33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2134,14 +2119,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2176,7 +2161,7 @@
       <c r="B35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2204,14 +2189,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2246,7 +2231,7 @@
       <c r="B37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2274,14 +2259,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2309,14 +2294,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2344,14 +2329,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2386,7 +2371,7 @@
       <c r="B41" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2421,7 +2406,7 @@
       <c r="B42" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2449,14 +2434,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2484,14 +2469,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2519,14 +2504,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2554,14 +2539,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2596,7 +2581,7 @@
       <c r="B47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2631,7 +2616,7 @@
       <c r="B48" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2666,7 +2651,7 @@
       <c r="B49" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2694,14 +2679,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2736,7 +2721,7 @@
       <c r="B51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -2771,7 +2756,7 @@
       <c r="B52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -2799,14 +2784,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2841,7 +2826,7 @@
       <c r="B54" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -2869,14 +2854,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>51</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -2911,7 +2896,7 @@
       <c r="B56" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2946,7 +2931,7 @@
       <c r="B57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -2981,7 +2966,7 @@
       <c r="B58" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -3009,14 +2994,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -3051,7 +3036,7 @@
       <c r="B60" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -3086,7 +3071,7 @@
       <c r="B61" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -3114,14 +3099,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -3156,7 +3141,7 @@
       <c r="B63" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -3191,7 +3176,7 @@
       <c r="B64" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -3219,14 +3204,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>62</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -3254,14 +3239,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -3296,7 +3281,7 @@
       <c r="B67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -3331,7 +3316,7 @@
       <c r="B68" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -3359,14 +3344,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -3401,7 +3386,7 @@
       <c r="B70" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3430,80 +3415,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{FC7DA2D2-821C-4F91-8E4F-99387B9E1429}"/>
-    <hyperlink ref="C4" r:id="rId2" tooltip="Finlândia" display="https://pt.wikipedia.org/wiki/Finl%C3%A2ndia" xr:uid="{312C5485-E187-476F-963B-88B729613E3B}"/>
-    <hyperlink ref="C5" r:id="rId3" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{D5FDC54A-B9A5-4186-8F09-9BB481E403A1}"/>
-    <hyperlink ref="C6" r:id="rId4" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{1131AA8D-EB64-4539-8986-0F2C3B5009FB}"/>
-    <hyperlink ref="C7" r:id="rId5" tooltip="Noruega" display="https://pt.wikipedia.org/wiki/Noruega" xr:uid="{8AD33850-6653-49F7-B898-B36A0479BDE5}"/>
-    <hyperlink ref="C8" r:id="rId6" tooltip="Noruega" display="https://pt.wikipedia.org/wiki/Noruega" xr:uid="{87A122E4-5B36-4DEE-96A6-6288320365BC}"/>
-    <hyperlink ref="C9" r:id="rId7" tooltip="Alemanha" display="https://pt.wikipedia.org/wiki/Alemanha" xr:uid="{ED4FCDA6-AD13-435E-AEB3-5A9C46EC96B7}"/>
-    <hyperlink ref="C10" r:id="rId8" tooltip="Japão" display="https://pt.wikipedia.org/wiki/Jap%C3%A3o" xr:uid="{89F30A1E-16EB-4359-9420-CD57D0030752}"/>
-    <hyperlink ref="C11" r:id="rId9" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{22C82C6F-0680-4736-8878-5DC1CA2C515F}"/>
-    <hyperlink ref="C12" r:id="rId10" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{8CFC1575-8075-481E-83A4-3BE349426DDA}"/>
-    <hyperlink ref="C13" r:id="rId11" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{925713F4-9629-4B6A-A19D-283E4E931067}"/>
-    <hyperlink ref="C14" r:id="rId12" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{238A8521-3EE8-4437-9300-7B78976B311B}"/>
-    <hyperlink ref="C15" r:id="rId13" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{B603381A-BB7F-416A-A55A-80EC3058EDFB}"/>
-    <hyperlink ref="C16" r:id="rId14" tooltip="Checoslováquia" display="https://pt.wikipedia.org/wiki/Checoslov%C3%A1quia" xr:uid="{6F326892-81C2-4421-A549-0D61B3004E31}"/>
-    <hyperlink ref="C17" r:id="rId15" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{FF2BE6D6-20F5-4A31-A172-9F3E16C32A2B}"/>
-    <hyperlink ref="C18" r:id="rId16" tooltip="Hungria" display="https://pt.wikipedia.org/wiki/Hungria" xr:uid="{D2A917AB-2018-463F-A562-80EEE04FD35E}"/>
-    <hyperlink ref="C19" r:id="rId17" tooltip="Itália" display="https://pt.wikipedia.org/wiki/It%C3%A1lia" xr:uid="{94C71330-753F-4891-80AD-3A327F67C334}"/>
-    <hyperlink ref="C20" r:id="rId18" tooltip="Noruega" display="https://pt.wikipedia.org/wiki/Noruega" xr:uid="{9B6CD570-C4D9-44F5-9E70-EBC8030E726C}"/>
-    <hyperlink ref="C21" r:id="rId19" tooltip="Rússia" display="https://pt.wikipedia.org/wiki/R%C3%BAssia" xr:uid="{AA5006DD-7009-4E54-8E76-24C194A161D0}"/>
-    <hyperlink ref="C22" r:id="rId20" tooltip="Bélgica" display="https://pt.wikipedia.org/wiki/B%C3%A9lgica" xr:uid="{2E621A11-1075-419B-B655-3049470801B5}"/>
-    <hyperlink ref="C23" r:id="rId21" tooltip="Japão" display="https://pt.wikipedia.org/wiki/Jap%C3%A3o" xr:uid="{94F1FB0A-D0D7-4C42-B21D-A261BC97DD78}"/>
-    <hyperlink ref="C24" r:id="rId22" tooltip="Itália" display="https://pt.wikipedia.org/wiki/It%C3%A1lia" xr:uid="{8C28A09C-4B84-4310-B9FA-09864A21DBA5}"/>
-    <hyperlink ref="C25" r:id="rId23" tooltip="Suécia" display="https://pt.wikipedia.org/wiki/Su%C3%A9cia" xr:uid="{CE98D24C-9788-4313-94F6-7AC4B5D911E1}"/>
-    <hyperlink ref="C26" r:id="rId24" tooltip="Reino Unido" display="https://pt.wikipedia.org/wiki/Reino_Unido" xr:uid="{5AF56FC2-B3EA-48B8-89EC-60489CB3F144}"/>
-    <hyperlink ref="C27" r:id="rId25" tooltip="Bielorrússia" display="https://pt.wikipedia.org/wiki/Bielorr%C3%BAssia" xr:uid="{BB8149BD-0C10-4C4F-9FBD-6E893A004D17}"/>
-    <hyperlink ref="C28" r:id="rId26" tooltip="Coreia do Sul" display="https://pt.wikipedia.org/wiki/Coreia_do_Sul" xr:uid="{37A46A04-463A-4C1F-B9BE-E1FCA3C7ADB0}"/>
-    <hyperlink ref="C29" r:id="rId27" tooltip="Alemanha" display="https://pt.wikipedia.org/wiki/Alemanha" xr:uid="{01FA71EC-9CC9-4E5D-B404-4E7AD594EB17}"/>
-    <hyperlink ref="C30" r:id="rId28" tooltip="Hungria" display="https://pt.wikipedia.org/wiki/Hungria" xr:uid="{5759B2C8-0EAE-471C-92AE-ADC1130E77F8}"/>
-    <hyperlink ref="C31" r:id="rId29" tooltip="Jamaica" display="https://pt.wikipedia.org/wiki/Jamaica" xr:uid="{48E8AE30-5F9C-4289-A0F3-2300DBCEA285}"/>
-    <hyperlink ref="C32" r:id="rId30" tooltip="Hungria" display="https://pt.wikipedia.org/wiki/Hungria" xr:uid="{A4F157F7-18E1-4FDB-9705-CB9F71F1F26B}"/>
-    <hyperlink ref="C33" r:id="rId31" tooltip="Itália" display="https://pt.wikipedia.org/wiki/It%C3%A1lia" xr:uid="{DADF6BFF-67C4-490E-8EF8-FD9C9B8D3F49}"/>
-    <hyperlink ref="C34" r:id="rId32" tooltip="Alemanha Oriental" display="https://pt.wikipedia.org/wiki/Alemanha_Oriental" xr:uid="{181ADD8F-2400-4ACA-950D-37F0F1D0C5F1}"/>
-    <hyperlink ref="C35" r:id="rId33" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{D6318185-1316-4E20-99D3-BDA3E2E2EC39}"/>
-    <hyperlink ref="C36" r:id="rId34" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{70E5CDC5-A3EC-4F92-B17A-0A8939C6DB46}"/>
-    <hyperlink ref="C37" r:id="rId35" tooltip="Japão" display="https://pt.wikipedia.org/wiki/Jap%C3%A3o" xr:uid="{0EA04855-4C36-4A34-88AA-4D0C72E3353F}"/>
-    <hyperlink ref="C38" r:id="rId36" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{9D6E162E-92C6-4165-88BA-3CE82CF789C2}"/>
-    <hyperlink ref="C39" r:id="rId37" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{36F8E7BA-BD7C-42E8-94AD-9D185A3555C9}"/>
-    <hyperlink ref="C40" r:id="rId38" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{7B3BBA58-0584-4303-80DD-36A00BAA5C25}"/>
-    <hyperlink ref="C41" r:id="rId39" tooltip="Hungria" display="https://pt.wikipedia.org/wiki/Hungria" xr:uid="{396FFE9D-4732-470E-B8C9-E1902F0902A1}"/>
-    <hyperlink ref="C42" r:id="rId40" tooltip="Romênia" display="https://pt.wikipedia.org/wiki/Rom%C3%AAnia" xr:uid="{6E3CF1A2-10C9-4A53-AD6F-E47EEFDF6138}"/>
-    <hyperlink ref="C43" r:id="rId41" tooltip="Austrália" display="https://pt.wikipedia.org/wiki/Austr%C3%A1lia" xr:uid="{0F25DE81-9702-4E53-937E-A940C572BFC6}"/>
-    <hyperlink ref="C44" r:id="rId42" tooltip="Finlândia" display="https://pt.wikipedia.org/wiki/Finl%C3%A2ndia" xr:uid="{A56ECF63-35A9-481A-B90B-D4F524A877CC}"/>
-    <hyperlink ref="C45" r:id="rId43" tooltip="Alemanha" display="https://pt.wikipedia.org/wiki/Alemanha" xr:uid="{CA6C792C-AF65-4917-A143-EF7A5B8F8EE8}"/>
-    <hyperlink ref="C46" r:id="rId44" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{C64A42EB-1E84-492D-8B32-000CC5010BEF}"/>
-    <hyperlink ref="C47" r:id="rId45" tooltip="Alemanha" display="https://pt.wikipedia.org/wiki/Alemanha" xr:uid="{89605E24-0778-4D22-9F02-FDDB7CE44FF8}"/>
-    <hyperlink ref="C48" r:id="rId46" tooltip="Romênia" display="https://pt.wikipedia.org/wiki/Rom%C3%AAnia" xr:uid="{9EE09C00-800D-442D-96DD-4018E78B342B}"/>
-    <hyperlink ref="C49" r:id="rId47" tooltip="Japão" display="https://pt.wikipedia.org/wiki/Jap%C3%A3o" xr:uid="{18C01333-E0D5-413C-9BFC-92AE0B652D2C}"/>
-    <hyperlink ref="C50" r:id="rId48" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{09809498-ECB7-4CBB-AD63-A9A7DB7FE9E2}"/>
-    <hyperlink ref="C51" r:id="rId49" tooltip="Japão" display="https://pt.wikipedia.org/wiki/Jap%C3%A3o" xr:uid="{41AFFDC0-4F8B-4726-AC2F-398EC8B96744}"/>
-    <hyperlink ref="C52" r:id="rId50" tooltip="Hungria" display="https://pt.wikipedia.org/wiki/Hungria" xr:uid="{24B24B2F-EF16-4A02-91C7-499C94958CF7}"/>
-    <hyperlink ref="C53" r:id="rId51" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{41160868-44D3-49F2-BB55-50AFC1D8C0A5}"/>
-    <hyperlink ref="C54" r:id="rId52" tooltip="Rússia" display="https://pt.wikipedia.org/wiki/R%C3%BAssia" xr:uid="{BFE0029F-8A5C-4A3C-90CD-9A9A6A5226C3}"/>
-    <hyperlink ref="B55" r:id="rId53" tooltip="Willis Lee" display="https://pt.wikipedia.org/wiki/Willis_Lee" xr:uid="{974B46C4-05DF-4F99-8096-C89040701B10}"/>
-    <hyperlink ref="C55" r:id="rId54" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{BCB59CEB-6350-40F3-8B20-3F4E4F9075EC}"/>
-    <hyperlink ref="C56" r:id="rId55" tooltip="Finlândia" display="https://pt.wikipedia.org/wiki/Finl%C3%A2ndia" xr:uid="{AAFEB2D1-74D6-41DC-AE9A-4B4917791795}"/>
-    <hyperlink ref="C57" r:id="rId56" tooltip="Alemanha" display="https://pt.wikipedia.org/wiki/Alemanha" xr:uid="{7819667C-C074-4C63-84FE-58F94E8DE8B7}"/>
-    <hyperlink ref="C58" r:id="rId57" tooltip="Noruega" display="https://pt.wikipedia.org/wiki/Noruega" xr:uid="{81DE4667-F771-4822-B107-732BB25641FA}"/>
-    <hyperlink ref="C59" r:id="rId58" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{A2965425-90EB-45BD-96B5-4B57E6CE484B}"/>
-    <hyperlink ref="C60" r:id="rId59" tooltip="União Soviética" display="https://pt.wikipedia.org/wiki/Uni%C3%A3o_Sovi%C3%A9tica" xr:uid="{42441522-8EDC-4B0B-8342-3AADD4CDF6C9}"/>
-    <hyperlink ref="C61" r:id="rId60" tooltip="Noruega" display="https://pt.wikipedia.org/wiki/Noruega" xr:uid="{B5F8ADCC-555C-4A17-953A-9A3E73C1885A}"/>
-    <hyperlink ref="C62" r:id="rId61" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{60839B97-EACB-4796-8D59-F6EDF35FFAAE}"/>
-    <hyperlink ref="C63" r:id="rId62" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{5D6F20A0-76AD-45C2-AA3B-23C7163E2A88}"/>
-    <hyperlink ref="C64" r:id="rId63" tooltip="Romênia" display="https://pt.wikipedia.org/wiki/Rom%C3%AAnia" xr:uid="{B64902AB-125E-4E96-8810-1C00B0A75B19}"/>
-    <hyperlink ref="C65" r:id="rId64" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{6233CA7D-7922-423A-BBED-DC628EA8526E}"/>
-    <hyperlink ref="C66" r:id="rId65" tooltip="Reino Unido" display="https://pt.wikipedia.org/wiki/Reino_Unido" xr:uid="{55D1B2F8-0789-41BF-AA40-C51E1427E97A}"/>
-    <hyperlink ref="C67" r:id="rId66" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{73D0B88C-D831-42B2-A929-9FE114CE41BE}"/>
-    <hyperlink ref="C68" r:id="rId67" tooltip="China" display="https://pt.wikipedia.org/wiki/China" xr:uid="{5E1D58D4-A23D-4594-B9DC-10F68FDBE5A7}"/>
-    <hyperlink ref="C69" r:id="rId68" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{98DBD75D-AB98-41CA-901C-D6791E70A7FE}"/>
-    <hyperlink ref="C70" r:id="rId69" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{B8FFA48F-C5AE-4153-813E-CC613C5EEE2D}"/>
-    <hyperlink ref="B2" r:id="rId70" tooltip="Michael Phelps" display="https://pt.wikipedia.org/wiki/Michael_Phelps" xr:uid="{C661F9DF-AA90-4C2F-AE60-077FE6C9E2DF}"/>
-    <hyperlink ref="C2" r:id="rId71" tooltip="Estados Unidos" display="https://pt.wikipedia.org/wiki/Estados_Unidos" xr:uid="{0982931A-3FAE-40F5-BE42-332DB600B634}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\GitHub\Dash-Olimpiadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1E9EB-9C22-422B-96B6-8417DCC299AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F40B02-96B2-4FD9-BCD2-6C9C33B83BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2130" windowWidth="20520" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -345,193 +345,193 @@
     <t>Ole Einar Bjørndalen</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bjørn Dæhlie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Birgit Fischer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sawao Kato</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jenny Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Matt Biondi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ray Ewry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nikolay Andrianov</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boris Shakhlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Věra Čáslavská</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viktor Chukarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aladár Gerevich</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edoardo Mangiarotti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marit Bjørgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lyubov Egorova</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hubert Van Innis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Akinori Nakayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valentina Vezzali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gert Fredriksson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chris Hoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vitaly Scherbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viktor Ahn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reiner Klimke</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pál Kovács</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Usain Bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rudolf Kárpáti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nedo Nadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kristin Otto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lidia Skoblikova</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amy Van Dyken</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Takashi Ono</t>
-  </si>
-  <si>
     <t>Carl Osburn</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ryan Lochte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ágnes Keleti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nadia Comăneci</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ian Thorpe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ville Ritola</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Isabell Werth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Polina Astakhova</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Claudia Pechstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elisabeta Lipă</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yukio Endo</t>
-  </si>
-  <si>
     <t>Aaron Peirsol</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mitsuo Tsukahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krisztina Egerszegi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tom Jager</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Larisa Lazutina</t>
-  </si>
-  <si>
-    <t> Michael Phelps</t>
-  </si>
-  <si>
-    <t> Willis Lee</t>
-  </si>
-  <si>
     <t>Clas Thunberg</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hans Günter Winkler</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thomas Alsgaard</t>
-  </si>
-  <si>
     <t>Anton Heida</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nellie Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ole Lilloe-Olsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Don Schollander</t>
-  </si>
-  <si>
     <t>Bonnie Blair</t>
   </si>
   <si>
-    <t xml:space="preserve"> Georgeta Damian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alfred Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Steve Redgrave</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Johnny Weissmuller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Morris Fisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eric Heiden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gary Hall Jr.</t>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>Bjørn Dæhlie</t>
+  </si>
+  <si>
+    <t>Birgit Fischer</t>
+  </si>
+  <si>
+    <t>Sawao Kato</t>
+  </si>
+  <si>
+    <t>Jenny Thompson</t>
+  </si>
+  <si>
+    <t>Matt Biondi</t>
+  </si>
+  <si>
+    <t>Ray Ewry</t>
+  </si>
+  <si>
+    <t>Boris Shakhlin</t>
+  </si>
+  <si>
+    <t>Nikolay Andrianov</t>
+  </si>
+  <si>
+    <t>Věra Čáslavská</t>
+  </si>
+  <si>
+    <t>Viktor Chukarin</t>
+  </si>
+  <si>
+    <t>Aladár Gerevich</t>
+  </si>
+  <si>
+    <t>Edoardo Mangiarotti</t>
+  </si>
+  <si>
+    <t>Valentina Vezzali</t>
+  </si>
+  <si>
+    <t>Akinori Nakayama</t>
+  </si>
+  <si>
+    <t>Lyubov Egorova</t>
+  </si>
+  <si>
+    <t>Hubert Van Innis</t>
+  </si>
+  <si>
+    <t>Marit Bjørgen</t>
+  </si>
+  <si>
+    <t>Gert Fredriksson</t>
+  </si>
+  <si>
+    <t>Chris Hoy</t>
+  </si>
+  <si>
+    <t>Vitaly Scherbo</t>
+  </si>
+  <si>
+    <t>Viktor Ahn</t>
+  </si>
+  <si>
+    <t>Reiner Klimke</t>
+  </si>
+  <si>
+    <t>Pál Kovács</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Rudolf Kárpáti</t>
+  </si>
+  <si>
+    <t>Nedo Nadi</t>
+  </si>
+  <si>
+    <t>Kristin Otto</t>
+  </si>
+  <si>
+    <t>Lidia Skoblikova</t>
+  </si>
+  <si>
+    <t>Amy Van Dyken</t>
+  </si>
+  <si>
+    <t>Takashi Ono</t>
+  </si>
+  <si>
+    <t>Ryan Lochte</t>
+  </si>
+  <si>
+    <t>Gary Hall Jr.</t>
+  </si>
+  <si>
+    <t>Ágnes Keleti</t>
+  </si>
+  <si>
+    <t>Nadia Comăneci</t>
+  </si>
+  <si>
+    <t>Ian Thorpe</t>
+  </si>
+  <si>
+    <t>Ville Ritola</t>
+  </si>
+  <si>
+    <t>Isabell Werth</t>
+  </si>
+  <si>
+    <t>Polina Astakhova</t>
+  </si>
+  <si>
+    <t>Claudia Pechstein</t>
+  </si>
+  <si>
+    <t>Elisabeta Lipă</t>
+  </si>
+  <si>
+    <t>Yukio Endo</t>
+  </si>
+  <si>
+    <t>Mitsuo Tsukahara</t>
+  </si>
+  <si>
+    <t>Krisztina Egerszegi</t>
+  </si>
+  <si>
+    <t>Tom Jager</t>
+  </si>
+  <si>
+    <t>Larisa Lazutina</t>
+  </si>
+  <si>
+    <t>Willis Lee</t>
+  </si>
+  <si>
+    <t>Hans Günter Winkler</t>
+  </si>
+  <si>
+    <t>Thomas Alsgaard</t>
+  </si>
+  <si>
+    <t>Nellie Kim</t>
+  </si>
+  <si>
+    <t>Ole Lilloe-Olsen</t>
+  </si>
+  <si>
+    <t>Don Schollander</t>
+  </si>
+  <si>
+    <t>Georgeta Damian</t>
+  </si>
+  <si>
+    <t>Alfred Lane</t>
+  </si>
+  <si>
+    <t>Steve Redgrave</t>
+  </si>
+  <si>
+    <t>Johnny Weissmuller</t>
+  </si>
+  <si>
+    <t>Morris Fisher</t>
+  </si>
+  <si>
+    <t>Eric Heiden</t>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>25</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>31</v>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>34</v>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>11</v>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>11</v>
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
@@ -1461,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>40</v>
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -1566,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>43</v>
@@ -1601,7 +1601,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>46</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>25</v>
@@ -1671,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>49</v>
@@ -1706,7 +1706,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>51</v>
@@ -1741,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>34</v>
@@ -1776,7 +1776,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>46</v>
@@ -1811,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>56</v>
@@ -1846,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>58</v>
@@ -1881,7 +1881,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>61</v>
@@ -1916,7 +1916,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>63</v>
@@ -1949,7 +1949,7 @@
     <row r="29" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -1984,7 +1984,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>43</v>
@@ -2019,7 +2019,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>68</v>
@@ -2054,7 +2054,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>43</v>
@@ -2089,7 +2089,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>46</v>
@@ -2124,7 +2124,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>71</v>
@@ -2159,7 +2159,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
@@ -2194,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>11</v>
@@ -2229,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>34</v>
@@ -2264,7 +2264,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>11</v>
@@ -2299,7 +2299,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>11</v>
@@ -2334,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>11</v>
@@ -2369,7 +2369,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>43</v>
@@ -2404,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>80</v>
@@ -2439,7 +2439,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>82</v>
@@ -2474,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>20</v>
@@ -2509,7 +2509,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>31</v>
@@ -2544,7 +2544,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>16</v>
@@ -2579,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>31</v>
@@ -2614,7 +2614,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>80</v>
@@ -2649,7 +2649,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>34</v>
@@ -2684,7 +2684,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>11</v>
@@ -2719,7 +2719,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>34</v>
@@ -2754,7 +2754,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>43</v>
@@ -2789,7 +2789,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>11</v>
@@ -2824,7 +2824,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>49</v>
@@ -2859,7 +2859,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>11</v>
@@ -2894,7 +2894,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>20</v>
@@ -2924,12 +2924,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>31</v>
@@ -2964,7 +2964,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>25</v>
@@ -2999,7 +2999,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>11</v>
@@ -3034,7 +3034,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>16</v>
@@ -3069,7 +3069,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>25</v>
@@ -3104,7 +3104,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>11</v>
@@ -3139,7 +3139,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>11</v>
@@ -3174,7 +3174,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>80</v>
@@ -3209,7 +3209,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>11</v>
@@ -3244,7 +3244,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>58</v>
@@ -3279,7 +3279,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>11</v>
@@ -3349,7 +3349,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>11</v>
@@ -3384,7 +3384,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>11</v>
